--- a/excel_report/Book11.xlsx
+++ b/excel_report/Book11.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WIN10 HOME\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B42367E-99C1-4F1D-AB8A-23C5E2F599A5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA52F8DA-9849-49D3-B852-70E8A2638D49}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7005" yWindow="2700" windowWidth="21600" windowHeight="11385" xr2:uid="{FFEDB916-1FD7-D94B-88B6-6E1106BD3F3D}"/>
+    <workbookView xWindow="0" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{FFEDB916-1FD7-D94B-88B6-6E1106BD3F3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C4EE0D8-ED9A-2341-91A5-82D2EE3D2EC5}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="G82" sqref="G82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -587,84 +587,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B31" s="1"/>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B35" s="1"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B36" s="1"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B37" s="1"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel_report/Book11.xlsx
+++ b/excel_report/Book11.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WIN10 HOME\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program\appserv\www\EV\excel_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA52F8DA-9849-49D3-B852-70E8A2638D49}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C99EFCF-559E-4C37-9D40-30FD22101C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{FFEDB916-1FD7-D94B-88B6-6E1106BD3F3D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FFEDB916-1FD7-D94B-88B6-6E1106BD3F3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,31 +42,31 @@
     <t>00018</t>
   </si>
   <si>
-    <t>00019</t>
-  </si>
-  <si>
-    <t>00020</t>
-  </si>
-  <si>
-    <t>00021</t>
-  </si>
-  <si>
-    <t>00022</t>
-  </si>
-  <si>
-    <t>00023</t>
-  </si>
-  <si>
-    <t>00024</t>
-  </si>
-  <si>
-    <t>00025</t>
-  </si>
-  <si>
-    <t>00026</t>
-  </si>
-  <si>
     <t>weght2</t>
+  </si>
+  <si>
+    <t>00009</t>
+  </si>
+  <si>
+    <t>00010</t>
+  </si>
+  <si>
+    <t>00011</t>
+  </si>
+  <si>
+    <t>00012</t>
+  </si>
+  <si>
+    <t>00013</t>
+  </si>
+  <si>
+    <t>00014</t>
+  </si>
+  <si>
+    <t>00015</t>
+  </si>
+  <si>
+    <t>00016</t>
   </si>
 </sst>
 </file>
@@ -77,13 +77,13 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -113,7 +113,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -427,13 +427,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C4EE0D8-ED9A-2341-91A5-82D2EE3D2EC5}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="G82" sqref="G82"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -444,15 +444,15 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -461,12 +461,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -475,12 +475,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -489,12 +489,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -503,12 +503,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -517,12 +517,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -531,12 +531,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -545,12 +545,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -559,12 +559,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -573,12 +573,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C11">
         <v>1</v>
